--- a/docs/05测试进度/07-用例编写进度v1.0_电子零售会员_v1.0.xlsx
+++ b/docs/05测试进度/07-用例编写进度v1.0_电子零售会员_v1.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCenter\01项目库\物流2.0系统\06-燃料油业务\06测试进度\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19680" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修订说明" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="用例编写进度跟踪" sheetId="2" r:id="rId3"/>
     <sheet name="个人生产性" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>用例编写进度踪模板</t>
   </si>
@@ -45,18 +40,12 @@
     <t>新建</t>
   </si>
   <si>
-    <t>张龙</t>
-  </si>
-  <si>
     <t>V1.1</t>
   </si>
   <si>
     <t>新增</t>
   </si>
   <si>
-    <t>张龙，王磊</t>
-  </si>
-  <si>
     <t>使用说明</t>
   </si>
   <si>
@@ -139,9 +128,6 @@
   </si>
   <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>王凡</t>
   </si>
   <si>
     <t>修改大纲和汇总问题0.5天
@@ -149,9 +135,6 @@
   </si>
   <si>
     <t>002-生产经营计划送审</t>
-  </si>
-  <si>
-    <t>柴玉龙</t>
   </si>
   <si>
     <r>
@@ -211,9 +194,6 @@
     <t>003-配送管理</t>
   </si>
   <si>
-    <t>勾学超</t>
-  </si>
-  <si>
     <t>请求处理异常</t>
   </si>
   <si>
@@ -287,19 +267,20 @@
   </si>
   <si>
     <t>燃料油业务</t>
-  </si>
-  <si>
-    <t>郑杨杨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +306,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -386,14 +360,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,8 +535,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -635,14 +932,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,9 +1253,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -729,81 +1265,123 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -819,16 +1397,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -837,34 +1405,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1122,237 +1667,236 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="F2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="32"/>
+    <col min="1" max="5" width="9" style="31"/>
     <col min="6" max="6" width="15.875" style="38" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="38" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="32" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="32" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="32"/>
+    <col min="8" max="8" width="15.75" style="31" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+    <row r="2" ht="21" spans="6:9">
+      <c r="F2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="52"/>
     </row>
-    <row r="3" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F3" s="39" t="s">
+    <row r="3" spans="6:9">
+      <c r="F3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F4" s="42" t="s">
+    <row r="4" spans="6:9">
+      <c r="F4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="45">
         <v>42779</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="6:9">
+      <c r="F5" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="45">
+        <v>42898</v>
+      </c>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="43">
-        <v>42898</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F6" s="42"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F7" s="42"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F8" s="42"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F10" s="42"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F11" s="42"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="6:9">
+      <c r="F6" s="44"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="6:9">
+      <c r="F7" s="44"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="6:9">
+      <c r="F8" s="44"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="6:9">
+      <c r="F9" s="44"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="6:9">
+      <c r="F10" s="44"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="6:9">
+      <c r="F11" s="44"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" ht="21" spans="6:9">
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="32"/>
+    <col min="1" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="20.25" spans="1:1">
+      <c r="A1" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="2:10">
+      <c r="B3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="2:10">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" ht="18.75" spans="2:10">
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -1363,7 +1907,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" ht="18.75" spans="2:10">
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1374,9 +1918,9 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" ht="18.75" spans="2:10">
       <c r="B13" s="35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -1387,9 +1931,9 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" ht="18.75" spans="2:10">
       <c r="B14" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -1400,74 +1944,75 @@
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" ht="18.75" spans="2:2">
       <c r="B15" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="2:2">
+      <c r="B16" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="2:2">
+      <c r="B17" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="35" t="s">
+    <row r="19" ht="20.25" spans="1:1">
+      <c r="A19" s="32"/>
+    </row>
+    <row r="20" ht="20.25" spans="1:1">
+      <c r="A20" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" ht="18.75" spans="2:4">
       <c r="B22" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="2:4">
+      <c r="B23" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="31" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D24" s="32" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:J10"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33.875" style="10" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="10" customWidth="1"/>
@@ -1488,60 +2033,58 @@
     <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="K3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="L3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="23" t="s">
+    </row>
+    <row r="4" ht="175.5" customHeight="1" spans="1:13">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="16">
         <v>403</v>
       </c>
@@ -1570,21 +2113,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:13">
+      <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="14" t="str">
         <f t="shared" ref="C5:C12" si="0">IF(J5=0%,"未开始",IF(J5&gt;=1,"已完成","进行中"))</f>
         <v>已完成</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="16">
         <v>17</v>
       </c>
@@ -1612,22 +2153,20 @@
         <f t="shared" ref="L5:L22" si="2">IFERROR((F5-G5)/K5,0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="M5" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>已完成</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="16">
         <v>21</v>
       </c>
@@ -1655,20 +2194,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>已完成</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="16">
         <v>108</v>
       </c>
@@ -1696,20 +2233,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="28"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>已完成</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="16">
         <v>4</v>
       </c>
@@ -1737,22 +2272,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" ht="71.25" spans="1:13">
       <c r="A9" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>进行中</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="16">
         <v>6</v>
       </c>
@@ -1770,7 +2303,7 @@
       </c>
       <c r="J9" s="25">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
@@ -1781,22 +2314,20 @@
         <v>0.1</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="99.75" spans="1:13">
+      <c r="A10" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="16">
         <v>143</v>
       </c>
@@ -1818,28 +2349,26 @@
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>47.666666666666664</v>
+        <v>47.6666666666667</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="14"/>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>已完成</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="16">
         <v>32</v>
       </c>
@@ -1867,20 +2396,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="14"/>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>进行中</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="D12" s="20"/>
       <c r="E12" s="16">
         <v>14</v>
       </c>
@@ -1896,7 +2423,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="25">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="3"/>
@@ -1904,25 +2431,23 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="2"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
-        <v>57</v>
+        <v>0.075</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:13">
+      <c r="A13" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="16">
         <v>4</v>
       </c>
@@ -1948,23 +2473,21 @@
       </c>
       <c r="L13" s="26">
         <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:13">
+      <c r="A14" s="14"/>
       <c r="B14" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D14" s="20"/>
       <c r="E14" s="16">
         <v>46</v>
       </c>
@@ -1982,7 +2505,7 @@
       </c>
       <c r="J14" s="25">
         <f t="shared" si="1"/>
-        <v>0.95652173913043481</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="3"/>
@@ -1990,23 +2513,21 @@
       </c>
       <c r="L14" s="26">
         <f t="shared" si="2"/>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:13">
+      <c r="A15" s="14"/>
       <c r="B15" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D15" s="20"/>
       <c r="E15" s="16">
         <v>3</v>
       </c>
@@ -2024,7 +2545,7 @@
       </c>
       <c r="J15" s="25">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="3"/>
@@ -2034,21 +2555,19 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="M15" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="M15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="14"/>
       <c r="B16" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D16" s="20"/>
       <c r="E16" s="16">
         <v>39</v>
       </c>
@@ -2076,21 +2595,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" ht="42.75" spans="1:13">
       <c r="A17" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="16">
         <v>38</v>
       </c>
@@ -2108,7 +2625,7 @@
       </c>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
-        <v>0.97368421052631582</v>
+        <v>0.973684210526316</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="3"/>
@@ -2116,25 +2633,23 @@
       </c>
       <c r="L17" s="26">
         <f t="shared" si="2"/>
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
-        <v>68</v>
+        <v>0.027027027027027</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:13">
+      <c r="A18" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D18" s="20"/>
       <c r="E18" s="16">
         <v>30</v>
       </c>
@@ -2152,31 +2667,29 @@
       </c>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
-        <v>0.96666666666666667</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="3"/>
-        <v>41.428571428571431</v>
+        <v>41.4285714285714</v>
       </c>
       <c r="L18" s="26">
         <f t="shared" si="2"/>
-        <v>2.4137931034482758E-2</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+        <v>0.0241379310344828</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="14"/>
       <c r="B19" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D19" s="20"/>
       <c r="E19" s="16">
         <v>30</v>
       </c>
@@ -2198,25 +2711,23 @@
       </c>
       <c r="K19" s="26">
         <f t="shared" si="3"/>
-        <v>42.857142857142861</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="L19" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14"/>
       <c r="B20" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D20" s="20"/>
       <c r="E20" s="16">
         <v>0</v>
       </c>
@@ -2242,23 +2753,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D21" s="20"/>
       <c r="E21" s="16">
         <v>4</v>
       </c>
@@ -2286,11 +2795,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22" t="str">
@@ -2318,19 +2827,19 @@
         <f>SUM(I4:I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <f t="shared" si="1"/>
         <v>0.984994640943194</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="29">
         <f>IFERROR(G22/H22,0)</f>
-        <v>55.029940119760482</v>
-      </c>
-      <c r="L22" s="30">
+        <v>55.0299401197605</v>
+      </c>
+      <c r="L22" s="29">
         <f t="shared" si="2"/>
-        <v>0.25440696409140368</v>
-      </c>
-      <c r="M22" s="31"/>
+        <v>0.254406964091404</v>
+      </c>
+      <c r="M22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2339,26 +2848,25 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A18:A20"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="进行中">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="between" text="进行中">
       <formula>NOT(ISERROR(SEARCH("进行中",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="未开始">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="未开始">
       <formula>NOT(ISERROR(SEARCH("未开始",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="进行中">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="进行中">
       <formula>NOT(ISERROR(SEARCH("进行中",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="未开始">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="未开始">
       <formula>NOT(ISERROR(SEARCH("未开始",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2367,20 +2875,22 @@
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="6" max="7" width="11.375" customWidth="1"/>
@@ -2390,68 +2900,64 @@
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:4">
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" ht="15" spans="4:4">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>55</v>
-      </c>
+    <row r="6" spans="2:11">
+      <c r="B6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="8">
         <f>IF(E6=0,0,E6/F6)</f>
-        <v>50.540540540540533</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
         <f>SUMIF(用例编写进度跟踪!D:D,个人生产性!C6,用例编写进度跟踪!G:G)</f>
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <f>SUMIF(用例编写进度跟踪!D:D,个人生产性!C6,用例编写进度跟踪!H:H)+SUMIF(用例编写进度跟踪!D:D,个人生产性!C6,用例编写进度跟踪!I:I)</f>
-        <v>3.7000000000000006</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55"/>
-      <c r="C7" s="7" t="s">
-        <v>81</v>
-      </c>
+    <row r="7" spans="2:6">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="8">
         <f>IF(E7=0,0,E7/F7)</f>
         <v>0</v>
@@ -2465,51 +2971,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="9" t="s">
-        <v>39</v>
-      </c>
+    <row r="8" spans="2:6">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="8">
         <f>IF(E8=0,0,E8/F8)</f>
-        <v>57.473684210526315</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8">
         <f>SUMIF(用例编写进度跟踪!D:D,个人生产性!C8,用例编写进度跟踪!G:G)</f>
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <f>SUMIF(用例编写进度跟踪!D:D,个人生产性!C8,用例编写进度跟踪!H:H)+SUMIF(用例编写进度跟踪!D:D,个人生产性!C8,用例编写进度跟踪!I:I)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="8">
         <f>IF(E9=0,0,E9/F9)</f>
-        <v>53.142857142857139</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
         <f>SUMIF(用例编写进度跟踪!D:D,个人生产性!C9,用例编写进度跟踪!G:G)</f>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
         <f>SUMIF(用例编写进度跟踪!D:D,个人生产性!C9,用例编写进度跟踪!H:H)+SUMIF(用例编写进度跟踪!D:D,个人生产性!C9,用例编写进度跟踪!I:I)</f>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
       <c r="D10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:B9"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>